--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE09A618-6AE9-453C-AD8B-9A0E42E5832C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C4C2A7-E5BF-480E-9A0F-556699E527F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A41AC411-2140-4E3A-9BA3-880AE2B13CC0}"/>
   </bookViews>
@@ -25,45 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>user_id</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>sekdep1</t>
+  </si>
+  <si>
+    <t>bendaharapusat</t>
+  </si>
+  <si>
+    <t>ktPemasaran</t>
+  </si>
+  <si>
+    <t>ob2</t>
+  </si>
+  <si>
+    <t>Dino</t>
+  </si>
+  <si>
+    <t>Seulgi</t>
+  </si>
+  <si>
+    <t>Seukwan</t>
+  </si>
+  <si>
+    <t>Kaka</t>
   </si>
   <si>
     <t>level_id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>sekdep1</t>
-  </si>
-  <si>
-    <t>bendaharapusat</t>
-  </si>
-  <si>
-    <t>ktPemasaran</t>
-  </si>
-  <si>
-    <t>ob2</t>
-  </si>
-  <si>
-    <t>Dino</t>
-  </si>
-  <si>
-    <t>Seulgi</t>
-  </si>
-  <si>
-    <t>Seukwan</t>
-  </si>
-  <si>
-    <t>Kaka</t>
   </si>
 </sst>
 </file>
@@ -415,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7CF4799-30DB-42D4-A159-049E771650C4}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,88 +427,73 @@
     <col min="5" max="5" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>123456</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>8</v>
-      </c>
-      <c r="B2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
+      <c r="D4">
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>9</v>
-      </c>
-      <c r="B3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>123456</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5">
+      <c r="D5">
         <v>123456</v>
       </c>
     </row>
